--- a/natmiOut/OldD7/LR-pairs_lrc2p/Rspo2-Lgr4.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Rspo2-Lgr4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t>ECs</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>sCs</t>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,16 +531,16 @@
         <v>23</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.58183960385228</v>
+        <v>1.621828666666667</v>
       </c>
       <c r="H2">
-        <v>1.58183960385228</v>
+        <v>4.865486</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -546,34 +549,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.39401024529062</v>
+        <v>2.451301666666667</v>
       </c>
       <c r="N2">
-        <v>2.39401024529062</v>
+        <v>7.353905</v>
       </c>
       <c r="O2">
-        <v>0.1147603686481548</v>
+        <v>0.1099648918267336</v>
       </c>
       <c r="P2">
-        <v>0.1147603686481548</v>
+        <v>0.1099648918267337</v>
       </c>
       <c r="Q2">
-        <v>3.786940218028814</v>
+        <v>3.975591313647778</v>
       </c>
       <c r="R2">
-        <v>3.786940218028814</v>
+        <v>35.78032182283</v>
       </c>
       <c r="S2">
-        <v>0.1147603686481548</v>
+        <v>0.1099648918267336</v>
       </c>
       <c r="T2">
-        <v>0.1147603686481548</v>
+        <v>0.1099648918267337</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,16 +593,16 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.58183960385228</v>
+        <v>1.621828666666667</v>
       </c>
       <c r="H3">
-        <v>1.58183960385228</v>
+        <v>4.865486</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -608,34 +611,34 @@
         <v>1</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>14.6300231241846</v>
+        <v>14.637306</v>
       </c>
       <c r="N3">
-        <v>14.6300231241846</v>
+        <v>43.911918</v>
       </c>
       <c r="O3">
-        <v>0.7013114711456213</v>
+        <v>0.6566265559283671</v>
       </c>
       <c r="P3">
-        <v>0.7013114711456213</v>
+        <v>0.6566265559283672</v>
       </c>
       <c r="Q3">
-        <v>23.14234998310986</v>
+        <v>23.739202473572</v>
       </c>
       <c r="R3">
-        <v>23.14234998310986</v>
+        <v>213.652822262148</v>
       </c>
       <c r="S3">
-        <v>0.7013114711456213</v>
+        <v>0.6566265559283671</v>
       </c>
       <c r="T3">
-        <v>0.7013114711456213</v>
+        <v>0.6566265559283672</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,16 +655,16 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.58183960385228</v>
+        <v>1.621828666666667</v>
       </c>
       <c r="H4">
-        <v>1.58183960385228</v>
+        <v>4.865486</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -673,31 +676,93 @@
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>3.83691604617579</v>
+        <v>0.02548533333333333</v>
       </c>
       <c r="N4">
-        <v>3.83691604617579</v>
+        <v>0.076456</v>
       </c>
       <c r="O4">
-        <v>0.1839281602062238</v>
+        <v>0.001143266845234572</v>
       </c>
       <c r="P4">
-        <v>0.1839281602062238</v>
+        <v>0.001143266845234572</v>
       </c>
       <c r="Q4">
-        <v>6.069385758497168</v>
+        <v>0.04133284417955555</v>
       </c>
       <c r="R4">
-        <v>6.069385758497168</v>
+        <v>0.371995597616</v>
       </c>
       <c r="S4">
-        <v>0.1839281602062238</v>
+        <v>0.001143266845234572</v>
       </c>
       <c r="T4">
-        <v>0.1839281602062238</v>
+        <v>0.001143266845234572</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1.621828666666667</v>
+      </c>
+      <c r="H5">
+        <v>4.865486</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>5.177582333333334</v>
+      </c>
+      <c r="N5">
+        <v>15.532747</v>
+      </c>
+      <c r="O5">
+        <v>0.2322652853996647</v>
+      </c>
+      <c r="P5">
+        <v>0.2322652853996648</v>
+      </c>
+      <c r="Q5">
+        <v>8.397151452226888</v>
+      </c>
+      <c r="R5">
+        <v>75.574363070042</v>
+      </c>
+      <c r="S5">
+        <v>0.2322652853996647</v>
+      </c>
+      <c r="T5">
+        <v>0.2322652853996648</v>
       </c>
     </row>
   </sheetData>
